--- a/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,94</t>
+          <t>14,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>108,96%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>106,88%</t>
+          <t>121,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>117,93%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 14,37</t>
+          <t>-2,2; 6,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,3</t>
+          <t>9,46; 19,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,02</t>
+          <t>5,76; 13,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,47; 178,37</t>
+          <t>-14,41; 69,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,44; 160,1</t>
+          <t>56,2; 211,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 67,46</t>
+          <t>55,3; 200,45</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>103,44%</t>
+          <t>-4,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>104,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>119,0%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,1</t>
+          <t>-1,79; 1,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,39</t>
+          <t>0,51; 5,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,75</t>
+          <t>1,94; 4,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,28; 182,0</t>
+          <t>-22,52; 23,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,87; 103,87</t>
+          <t>22,62; 266,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 12,74</t>
+          <t>55,78; 209,86</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,24%</t>
+          <t>-25,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,12%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,37%</t>
+          <t>129,65%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,73</t>
+          <t>-1,66; 0,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,68</t>
+          <t>0,08; 4,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,49</t>
+          <t>0,1; 2,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 284,07</t>
+          <t>-61,51; 51,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 202,68</t>
+          <t>-4,63; 251,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,56; 37,32</t>
+          <t>-8,25; 446,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>110,66%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>102,79%</t>
+          <t>145,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>128,82%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,97</t>
+          <t>-1,09; 1,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,33</t>
+          <t>2,73; 7,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,93</t>
+          <t>2,9; 4,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,65; 159,43</t>
+          <t>-15,27; 20,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,69; 136,8</t>
+          <t>65,95; 261,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 16,81</t>
+          <t>83,06; 188,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+          <t>Polimedicación (5 o más medicamentos)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 6,76</t>
+          <t>-1,37; 6,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,46; 19,73</t>
+          <t>9,39; 19,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 69,63</t>
+          <t>-10,23; 71,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>56,2; 211,36</t>
+          <t>61,8; 205,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,52</t>
+          <t>-1,55; 1,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,03</t>
+          <t>0,15; 4,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 23,57</t>
+          <t>-21,56; 21,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,62; 266,79</t>
+          <t>15,76; 260,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-25,4%</t>
+          <t>-31,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,64</t>
+          <t>-1,87; 0,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,54</t>
+          <t>0,06; 4,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-61,51; 51,12</t>
+          <t>-65,22; 29,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 251,65</t>
+          <t>-3,77; 244,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,27</t>
+          <t>-0,8; 1,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,42</t>
+          <t>2,88; 7,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 20,99</t>
+          <t>-12,3; 22,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,95; 261,29</t>
+          <t>74,68; 263,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>13,84</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9,59</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,55</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,59</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>118,22%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>117,93%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>23,14%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>121,56%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>117,93%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>8,82; 18,14</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 13,37</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,37; 6,4</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 19,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 13,37</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>58,03; 199,92</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>55,3; 200,45</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-10,23; 71,91</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>61,8; 205,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>55,3; 200,45</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-0,07</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>119,93%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>119,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-1,04%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>104,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>119,0%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,29; 5,26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 4,76</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-1,55; 1,25</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 4,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 4,76</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>56,35; 210,27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>55,78; 209,86</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-21,56; 21,66</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>15,76; 260,05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>55,78; 209,86</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,65</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>91,36%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>129,65%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-31,49%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>79,22%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>129,65%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,25; 4,68</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 2,58</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-1,87; 0,4</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 4,45</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 2,58</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6,06; 276,82</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; 446,33</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-65,22; 29,81</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 244,94</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-8,25; 446,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,15</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,44</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>148,8%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>128,82%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,63%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>145,28%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>128,82%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,79; 7,37</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 4,98</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,8; 1,18</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 7,29</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 4,98</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>100,28; 208,93</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83,06; 188,06</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-12,3; 22,13</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>74,68; 263,64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>83,06; 188,06</t>
         </is>
       </c>
     </row>
